--- a/data/BaCandBLUE_Bioassay/SWD_ChoiceAssay_USDA_prelim.xlsx
+++ b/data/BaCandBLUE_Bioassay/SWD_ChoiceAssay_USDA_prelim.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\data\BaCandBLUE_Bioassay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE663B-06F4-4F5A-A67F-4004F9EE95D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC53635-1D7A-4A61-B578-5FBAABB16176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CAA9B674-73AE-476B-8E70-46D4385F902B}"/>
+    <workbookView xWindow="30525" yWindow="915" windowWidth="17970" windowHeight="13410" xr2:uid="{CAA9B674-73AE-476B-8E70-46D4385F902B}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_20191018" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="32">
   <si>
     <t>LB10BBJ</t>
   </si>
@@ -107,6 +109,27 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>F. faeni</t>
+  </si>
+  <si>
+    <t>P. agglomerans</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>microbe</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -158,6 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F541D8A-00DD-4DD1-BC2F-F9B44DB50487}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V27" si="0">SUM(K3,L3,N3,O3,Q3,R3,T3,U3)</f>
+        <f t="shared" ref="V3:V43" si="0">SUM(K3,L3,N3,O3,Q3,R3,T3,U3)</f>
         <v>39</v>
       </c>
     </row>
@@ -1611,7 +1637,7 @@
         <v>20191029</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
@@ -1659,7 +1685,7 @@
         <v>20191029</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
@@ -1707,7 +1733,7 @@
         <v>20191029</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
@@ -1755,7 +1781,7 @@
         <v>20191029</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
@@ -1803,7 +1829,7 @@
         <v>20191029</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -1851,7 +1877,7 @@
         <v>20191029</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
@@ -1899,7 +1925,7 @@
         <v>20191029</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
@@ -1947,7 +1973,7 @@
         <v>20191029</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
@@ -1995,7 +2021,7 @@
         <v>20191029</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
@@ -2043,7 +2069,7 @@
         <v>20191029</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
@@ -2078,6 +2104,1162 @@
       <c r="V27" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1303</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1423</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>44</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1304</v>
+      </c>
+      <c r="I29" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1430</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="2">
+        <v>45</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1307</v>
+      </c>
+      <c r="I30" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N30" s="2">
+        <v>6</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1435</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>43</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1337</v>
+      </c>
+      <c r="I31" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1440</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>52</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1340</v>
+      </c>
+      <c r="I32" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>6</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1445</v>
+      </c>
+      <c r="T32" s="2">
+        <v>6</v>
+      </c>
+      <c r="U32" s="2">
+        <v>33</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1404</v>
+      </c>
+      <c r="I33" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1450</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>44</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1339</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1408</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>4</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1455</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1507</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1519</v>
+      </c>
+      <c r="T36" s="2">
+        <v>6</v>
+      </c>
+      <c r="U36" s="2">
+        <v>39</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1504</v>
+      </c>
+      <c r="I37" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1530</v>
+      </c>
+      <c r="T37" s="2">
+        <v>5</v>
+      </c>
+      <c r="U37" s="2">
+        <v>42</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1527</v>
+      </c>
+      <c r="I38" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1535</v>
+      </c>
+      <c r="T38" s="2">
+        <v>10</v>
+      </c>
+      <c r="U38" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1526</v>
+      </c>
+      <c r="I39" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1539</v>
+      </c>
+      <c r="T39" s="2">
+        <v>3</v>
+      </c>
+      <c r="U39" s="2">
+        <v>45</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1557</v>
+      </c>
+      <c r="I40" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1546</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>46</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1528</v>
+      </c>
+      <c r="I41" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1505</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1553</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>49</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1556</v>
+      </c>
+      <c r="I42" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1505</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1558</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>49</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>20191112</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>20191114</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C65922-103B-4BAB-9F40-2DEEB00C736F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20191111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20191111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20191118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20191118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20191125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20191125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20191202</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20191209</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
